--- a/data/tables/describeDf.xlsx
+++ b/data/tables/describeDf.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>customer_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>customer_id</t>
+          <t>transaction_id</t>
         </is>
       </c>
     </row>

--- a/data/tables/describeDf.xlsx
+++ b/data/tables/describeDf.xlsx
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>transaction_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>purchase_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>product_category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>customer_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>purchase_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>product_category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>transaction_id</t>
         </is>
       </c>
     </row>
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="C2" t="n">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="D2" t="n">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="E2" t="n">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="F2" t="n">
-        <v>820</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500.8841463414634</v>
+        <v>502.1695760598504</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1049.423170731707</v>
+        <v>1049.285536159601</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.1382475282388</v>
+        <v>289.9488200945592</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>27.9561002395852</v>
+        <v>28.06590274075462</v>
       </c>
     </row>
     <row r="8">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250.75</v>
+        <v>255.25</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>499</v>
+        <v>500.5</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>752.25</v>
+        <v>752.75</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
